--- a/_Out/NFDataCfg/Excel_Ini/HttpServer.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/HttpServer.xlsx
@@ -64,7 +64,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>../../../Tool/NF_Web_Monitor</t>
+    <t>../../Tool/NF_Web_Monitor</t>
   </si>
 </sst>
 </file>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -99,7 +99,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,130 +218,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,15 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -628,15 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -654,11 +636,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,7 +1276,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/_Out/NFDataCfg/Excel_Ini/HttpServer.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/HttpServer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -65,19 +70,16 @@
   </si>
   <si>
     <t>../../Tool/NF_Web_Monitor</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -97,159 +99,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,194 +119,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -579,251 +244,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -886,58 +309,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1269,26 +653,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
+    <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:4">
+    <row r="4" spans="1:4" s="3" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
+    <row r="5" spans="1:4" s="3" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:4">
+    <row r="6" spans="1:4" s="3" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:4">
+    <row r="7" spans="1:4" s="4" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -1386,51 +768,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:4">
+    <row r="8" spans="1:4" s="4" customFormat="1">
       <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>80</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 C6 D6 B7:B8 C7:C8 D7:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6 B7:E9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>